--- a/RulesetDev/Rulesets/shared/T24RClimateZoneCodeBaselines.xlsx
+++ b/RulesetDev/Rulesets/shared/T24RClimateZoneCodeBaselines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\svn-CEC\SF_CBECC-Com\branches\CBECC-Com_MFamRestructure\RulesetDev\Rulesets\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999F05C2-0D86-46D9-B310-E560C6C8B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2142204-AEBD-40AC-9B2F-2BA3D12E9CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2175" windowWidth="24675" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="2010" windowWidth="16215" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T24RClimateZoneCodeBaselines" sheetId="1" r:id="rId1"/>
@@ -3120,13 +3120,13 @@
     <t>none</t>
   </si>
   <si>
-    <t>T24-22MF CathClg 2x12 R38 R1.1 U0.028</t>
+    <t>T24-22MF Framed Roof U=0.028</t>
   </si>
   <si>
-    <t>T24-22MF CathClg 2x10 R30 R0.8 U0.034</t>
+    <t>T24-22MF Framed Roof U=0.034</t>
   </si>
   <si>
-    <t>T24-22MF CathClg 2x10 R26 R0.2 U0.039</t>
+    <t>T24-22MF Framed Roof U=0.039</t>
   </si>
 </sst>
 </file>
@@ -4477,11 +4477,11 @@
   <dimension ref="A1:EY376"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C126" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="BF340" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="BH347" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C126" sqref="C126"/>
       <selection pane="topRight" activeCell="F126" sqref="F126"/>
       <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
-      <selection pane="bottomRight" activeCell="BH344" sqref="BH344"/>
+      <selection pane="bottomRight" activeCell="BH366" sqref="BH366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4534,7 +4534,7 @@
     <col min="57" max="57" width="33.42578125" customWidth="1"/>
     <col min="58" max="58" width="31.7109375" customWidth="1"/>
     <col min="59" max="59" width="33.140625" customWidth="1"/>
-    <col min="60" max="60" width="39.7109375" customWidth="1"/>
+    <col min="60" max="60" width="35.85546875" customWidth="1"/>
     <col min="61" max="61" width="11.7109375" customWidth="1"/>
     <col min="62" max="62" width="24.28515625" style="75" customWidth="1"/>
     <col min="63" max="63" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -59557,7 +59557,7 @@
       <c r="BG359" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="BH359" s="3" t="s">
+      <c r="BH359" s="84" t="s">
         <v>341</v>
       </c>
       <c r="BI359" s="19">
